--- a/results/Office.Texture.blindSpotRotation.xlsx
+++ b/results/Office.Texture.blindSpotRotation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -68,6 +68,21 @@
   <si>
     <t>PCA</t>
   </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>avg1000</t>
+  </si>
+  <si>
+    <t>miner</t>
+  </si>
+  <si>
+    <t>prcent</t>
+  </si>
+  <si>
+    <t>FM-2D</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,13 +113,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,11 +607,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="429940000"/>
-        <c:axId val="429941960"/>
+        <c:axId val="202167536"/>
+        <c:axId val="202161656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="429940000"/>
+        <c:axId val="202167536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,7 +649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429941960"/>
+        <c:crossAx val="202161656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -632,7 +657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429941960"/>
+        <c:axId val="202161656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -678,7 +703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429940000"/>
+        <c:crossAx val="202167536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1579,11 +1604,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="429942352"/>
-        <c:axId val="429942744"/>
+        <c:axId val="202160872"/>
+        <c:axId val="202164008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="429942352"/>
+        <c:axId val="202160872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429942744"/>
+        <c:crossAx val="202164008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1600,7 +1625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429942744"/>
+        <c:axId val="202164008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1613,7 +1638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429942352"/>
+        <c:crossAx val="202160872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2090,11 +2115,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="429936472"/>
-        <c:axId val="429936864"/>
+        <c:axId val="202166752"/>
+        <c:axId val="202168320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="429936472"/>
+        <c:axId val="202166752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,7 +2157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429936864"/>
+        <c:crossAx val="202168320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2140,7 +2165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429936864"/>
+        <c:axId val="202168320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2186,7 +2211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429936472"/>
+        <c:crossAx val="202166752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2241,7 +2266,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2280,16 +2305,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>509586</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2309,7 +2334,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6391275" y="4714874"/>
+    <xdr:pos x="6229350" y="0"/>
     <xdr:ext cx="6191249" cy="4676775"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2620,10 +2645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3055,7 +3080,7 @@
         <v>6.7606799999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3085,7 +3110,7 @@
         <v>6.6953300000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3115,7 +3140,7 @@
         <v>8.4932599999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3145,7 +3170,7 @@
         <v>4.3495499999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3175,7 +3200,7 @@
         <v>3.56989</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3205,7 +3230,7 @@
         <v>1163.21</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3235,7 +3260,7 @@
         <v>0.90176000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3265,7 +3290,7 @@
         <v>500.399</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3295,7 +3320,7 @@
         <v>1.0408900000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3325,7 +3350,7 @@
         <v>22.994199999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3355,7 +3380,7 @@
         <v>4.0148099999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3385,7 +3410,7 @@
         <v>0.90194300000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3415,7 +3440,7 @@
         <v>683.93799999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3446,8 +3471,26 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>1</f>
         <v>1</v>
@@ -3457,293 +3500,461 @@
         <v>0.995838</v>
       </c>
       <c r="C31">
-        <f>C5/$B31</f>
+        <f t="shared" ref="C31:I31" si="1">C5/$B31</f>
         <v>0.61834555419656612</v>
       </c>
       <c r="D31">
-        <f>D5/$B31</f>
+        <f t="shared" si="1"/>
         <v>428.6550623695822</v>
       </c>
       <c r="E31">
-        <f>E5/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.61473954599041203</v>
       </c>
       <c r="F31">
-        <f>F5/$B31</f>
+        <f t="shared" si="1"/>
         <v>1.0111885668150844</v>
       </c>
       <c r="G31">
-        <f>G5/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.5940554588196072</v>
       </c>
       <c r="H31">
-        <f>H5/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.63064173088393904</v>
       </c>
       <c r="I31">
-        <f>I5/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.63732755729345536</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J50" si="1">MIN(G31:I31)</f>
+        <f t="shared" ref="J31:J50" si="2">MIN(G31:I31)</f>
         <v>0.5940554588196072</v>
       </c>
+      <c r="L31">
+        <f>MIN(C31:J31)</f>
+        <v>0.5940554588196072</v>
+      </c>
+      <c r="M31">
+        <f>IF($L31=C31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Q46" si="3">IF($L31=D31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>2</v>
       </c>
       <c r="B32">
-        <f>B7</f>
+        <f t="shared" ref="B32:B37" si="4">B7</f>
         <v>3.64812</v>
       </c>
       <c r="C32">
-        <f>C7/$B32</f>
+        <f t="shared" ref="C32:I37" si="5">C7/$B32</f>
         <v>0.20004166529609771</v>
       </c>
       <c r="D32">
-        <f>D7/$B32</f>
+        <f t="shared" si="5"/>
         <v>0.29005076587392958</v>
       </c>
       <c r="E32">
-        <f>E7/$B32</f>
+        <f t="shared" si="5"/>
         <v>0.23541029352104648</v>
       </c>
       <c r="F32">
-        <f>F7/$B32</f>
+        <f t="shared" si="5"/>
         <v>0.9890656009122506</v>
       </c>
       <c r="G32">
-        <f>G7/$B32</f>
+        <f t="shared" si="5"/>
         <v>0.19356106707016218</v>
       </c>
       <c r="H32">
-        <f>H7/$B32</f>
+        <f t="shared" si="5"/>
         <v>0.21850569608455864</v>
       </c>
       <c r="I32">
-        <f>I7/$B32</f>
+        <f t="shared" si="5"/>
         <v>0.19674681753889672</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19356106707016218</v>
       </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L50" si="6">MIN(C32:J32)</f>
+        <v>0.19356106707016218</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:Q50" si="7">IF($L32=C32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ref="A33:A50" si="2">A32+1</f>
+        <f t="shared" ref="A33:A50" si="8">A32+1</f>
         <v>3</v>
       </c>
       <c r="B33">
-        <f>B8</f>
+        <f t="shared" si="4"/>
         <v>1.4055599999999999</v>
       </c>
       <c r="C33">
-        <f>C8/$B33</f>
+        <f t="shared" si="5"/>
         <v>0.65514883747403174</v>
       </c>
       <c r="D33">
-        <f>D8/$B33</f>
+        <f t="shared" si="5"/>
         <v>0.99119923731466464</v>
       </c>
       <c r="E33">
-        <f>E8/$B33</f>
+        <f t="shared" si="5"/>
         <v>0.60017573066962637</v>
       </c>
       <c r="F33">
-        <f>F8/$B33</f>
+        <f t="shared" si="5"/>
         <v>0.9774680554369789</v>
       </c>
       <c r="G33">
-        <f>G8/$B33</f>
+        <f t="shared" si="5"/>
         <v>0.62165542559549225</v>
       </c>
       <c r="H33">
-        <f>H8/$B33</f>
+        <f t="shared" si="5"/>
         <v>0.5409978940778053</v>
       </c>
       <c r="I33">
-        <f>I8/$B33</f>
+        <f t="shared" si="5"/>
         <v>0.58489000825293835</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5409978940778053</v>
       </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>0.5409978940778053</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="4"/>
+        <v>0.92128100000000002</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="5"/>
+        <v>1.1497143651068458</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>0.99353400319772145</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>0.91337713466358261</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>0.97398730680432999</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>0.97030981861125964</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>1.1807146788004961</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>1.2188897849841689</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <f>B9</f>
-        <v>0.92128100000000002</v>
-      </c>
-      <c r="C34">
-        <f>C9/$B34</f>
-        <v>1.1497143651068458</v>
-      </c>
-      <c r="D34">
-        <f>D9/$B34</f>
-        <v>0.99353400319772145</v>
-      </c>
-      <c r="E34">
-        <f>E9/$B34</f>
+        <v>0.97030981861125964</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
         <v>0.91337713466358261</v>
       </c>
-      <c r="F34">
-        <f>F9/$B34</f>
-        <v>0.97398730680432999</v>
-      </c>
-      <c r="G34">
-        <f>G9/$B34</f>
-        <v>0.97030981861125964</v>
-      </c>
-      <c r="H34">
-        <f>H9/$B34</f>
-        <v>1.1807146788004961</v>
-      </c>
-      <c r="I34">
-        <f>I9/$B34</f>
-        <v>1.2188897849841689</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
-        <v>0.97030981861125964</v>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="4"/>
+        <v>1.2669299999999999</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="5"/>
+        <v>0.6108593213516138</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>1.0056672428626681</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>0.66136724207335851</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>0.99261995532507719</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>0.60809515916427914</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>0.65322867088157988</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>0.67641700804306482</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <f>B10</f>
-        <v>1.2669299999999999</v>
-      </c>
-      <c r="C35">
-        <f>C10/$B35</f>
-        <v>0.6108593213516138</v>
-      </c>
-      <c r="D35">
-        <f>D10/$B35</f>
-        <v>1.0056672428626681</v>
-      </c>
-      <c r="E35">
-        <f>E10/$B35</f>
-        <v>0.66136724207335851</v>
-      </c>
-      <c r="F35">
-        <f>F10/$B35</f>
-        <v>0.99261995532507719</v>
-      </c>
-      <c r="G35">
-        <f>G10/$B35</f>
         <v>0.60809515916427914</v>
       </c>
-      <c r="H35">
-        <f>H10/$B35</f>
-        <v>0.65322867088157988</v>
-      </c>
-      <c r="I35">
-        <f>I10/$B35</f>
-        <v>0.67641700804306482</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
+      <c r="L35">
+        <f t="shared" si="6"/>
         <v>0.60809515916427914</v>
       </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>1.11524</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>0.82240145618880234</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>0.88224597396076176</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="5"/>
+        <v>0.69095800007173347</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>0.88001237401814858</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>0.76330834618557442</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>0.81985940246045697</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>0.77336985760912447</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <f>B11</f>
-        <v>1.11524</v>
-      </c>
-      <c r="C36">
-        <f>C11/$B36</f>
-        <v>0.82240145618880234</v>
-      </c>
-      <c r="D36">
-        <f>D11/$B36</f>
-        <v>0.88224597396076176</v>
-      </c>
-      <c r="E36">
-        <f>E11/$B36</f>
+        <v>0.76330834618557442</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
         <v>0.69095800007173347</v>
       </c>
-      <c r="F36">
-        <f>F11/$B36</f>
-        <v>0.88001237401814858</v>
-      </c>
-      <c r="G36">
-        <f>G11/$B36</f>
-        <v>0.76330834618557442</v>
-      </c>
-      <c r="H36">
-        <f>H11/$B36</f>
-        <v>0.81985940246045697</v>
-      </c>
-      <c r="I36">
-        <f>I11/$B36</f>
-        <v>0.77336985760912447</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="1"/>
-        <v>0.76330834618557442</v>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="4"/>
+        <v>1.6308800000000001</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>0.48285220249190619</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>0.63148116354360839</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="5"/>
+        <v>0.45604029726282741</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>1.0863092318257628</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>0.509916118905131</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>0.79272539978416556</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="5"/>
+        <v>0.50189161679584027</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <f>B12</f>
-        <v>1.6308800000000001</v>
-      </c>
-      <c r="C37">
-        <f>C12/$B37</f>
-        <v>0.48285220249190619</v>
-      </c>
-      <c r="D37">
-        <f>D12/$B37</f>
-        <v>0.63148116354360839</v>
-      </c>
-      <c r="E37">
-        <f>E12/$B37</f>
+        <v>0.50189161679584027</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
         <v>0.45604029726282741</v>
       </c>
-      <c r="F37">
-        <f>F12/$B37</f>
-        <v>1.0863092318257628</v>
-      </c>
-      <c r="G37">
-        <f>G12/$B37</f>
-        <v>0.509916118905131</v>
-      </c>
-      <c r="H37">
-        <f>H12/$B37</f>
-        <v>0.79272539978416556</v>
-      </c>
-      <c r="I37">
-        <f>I12/$B37</f>
-        <v>0.50189161679584027</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="1"/>
-        <v>0.50189161679584027</v>
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="B38">
@@ -3751,41 +3962,65 @@
         <v>1.44723</v>
       </c>
       <c r="C38">
-        <f>C14/$B38</f>
+        <f t="shared" ref="C38:I40" si="9">C14/$B38</f>
         <v>1.1606309985282228</v>
       </c>
       <c r="D38">
-        <f>D14/$B38</f>
+        <f t="shared" si="9"/>
         <v>2.1355416899870785</v>
       </c>
       <c r="E38">
-        <f>E14/$B38</f>
+        <f t="shared" si="9"/>
         <v>0.93754966384057814</v>
       </c>
       <c r="F38">
-        <f>F14/$B38</f>
+        <f t="shared" si="9"/>
         <v>0.93938765780145517</v>
       </c>
       <c r="G38">
-        <f>G14/$B38</f>
+        <f t="shared" si="9"/>
         <v>2.1381743053972069</v>
       </c>
       <c r="H38">
-        <f>H14/$B38</f>
+        <f t="shared" si="9"/>
         <v>1.4642178506526262</v>
       </c>
       <c r="I38">
-        <f>I14/$B38</f>
+        <f t="shared" si="9"/>
         <v>0.93989897942966905</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93989897942966905</v>
       </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>0.93754966384057814</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="B39">
@@ -3793,41 +4028,65 @@
         <v>7.1884899999999998</v>
       </c>
       <c r="C39">
-        <f>C15/$B39</f>
+        <f t="shared" si="9"/>
         <v>0.23763683332660965</v>
       </c>
       <c r="D39">
-        <f>D15/$B39</f>
+        <f t="shared" si="9"/>
         <v>0.94435270828783235</v>
       </c>
       <c r="E39">
-        <f>E15/$B39</f>
+        <f t="shared" si="9"/>
         <v>0.20096710157487874</v>
       </c>
       <c r="F39">
-        <f>F15/$B39</f>
+        <f t="shared" si="9"/>
         <v>1.0042748894413152</v>
       </c>
       <c r="G39">
-        <f>G15/$B39</f>
+        <f t="shared" si="9"/>
         <v>0.22316786974733221</v>
       </c>
       <c r="H39">
-        <f>H15/$B39</f>
+        <f t="shared" si="9"/>
         <v>1.2013496575775997</v>
       </c>
       <c r="I39">
-        <f>I15/$B39</f>
+        <f t="shared" si="9"/>
         <v>0.24897301102178623</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22316786974733221</v>
       </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>0.20096710157487874</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="B40">
@@ -3835,41 +4094,65 @@
         <v>9.9110099999999992</v>
       </c>
       <c r="C40">
-        <f>C16/$B40</f>
+        <f t="shared" si="9"/>
         <v>0.71160356008116232</v>
       </c>
       <c r="D40">
-        <f>D16/$B40</f>
+        <f t="shared" si="9"/>
         <v>1.1461596749473566</v>
       </c>
       <c r="E40">
-        <f>E16/$B40</f>
+        <f t="shared" si="9"/>
         <v>0.64174387877723871</v>
       </c>
       <c r="F40">
-        <f>F16/$B40</f>
+        <f t="shared" si="9"/>
         <v>1.039480335505665</v>
       </c>
       <c r="G40">
-        <f>G16/$B40</f>
+        <f t="shared" si="9"/>
         <v>0.82798019576208692</v>
       </c>
       <c r="H40">
-        <f>H16/$B40</f>
+        <f t="shared" si="9"/>
         <v>0.77861186700447282</v>
       </c>
       <c r="I40">
-        <f>I16/$B40</f>
+        <f t="shared" si="9"/>
         <v>0.68213834916925731</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.68213834916925731</v>
       </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>0.64174387877723871</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="B41">
@@ -3877,41 +4160,65 @@
         <v>66.415300000000002</v>
       </c>
       <c r="C41">
-        <f>C18/$B41</f>
+        <f t="shared" ref="C41:I42" si="10">C18/$B41</f>
         <v>3.686424664196352E-2</v>
       </c>
       <c r="D41">
-        <f>D18/$B41</f>
+        <f t="shared" si="10"/>
         <v>1.0455422169289306</v>
       </c>
       <c r="E41">
-        <f>E18/$B41</f>
+        <f t="shared" si="10"/>
         <v>0.4466531055344175</v>
       </c>
       <c r="F41">
-        <f>F18/$B41</f>
+        <f t="shared" si="10"/>
         <v>1.0333567717077241</v>
       </c>
       <c r="G41">
-        <f>G18/$B41</f>
+        <f t="shared" si="10"/>
         <v>9.5098117451852204E-2</v>
       </c>
       <c r="H41">
-        <f>H18/$B41</f>
+        <f t="shared" si="10"/>
         <v>7.1954052755916181E-2</v>
       </c>
       <c r="I41">
-        <f>I18/$B41</f>
+        <f t="shared" si="10"/>
         <v>0.12788107559553294</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1954052755916181E-2</v>
       </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>3.686424664196352E-2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="B42">
@@ -3919,372 +4226,698 @@
         <v>6.0363199999999999</v>
       </c>
       <c r="C42">
-        <f>C19/$B42</f>
+        <f t="shared" si="10"/>
         <v>0.72394438995944543</v>
       </c>
       <c r="D42">
-        <f>D19/$B42</f>
+        <f t="shared" si="10"/>
         <v>407.59104885095553</v>
       </c>
       <c r="E42">
-        <f>E19/$B42</f>
+        <f t="shared" si="10"/>
         <v>0.67705986428817555</v>
       </c>
       <c r="F42">
-        <f>F19/$B42</f>
+        <f t="shared" si="10"/>
         <v>1.2896996845760331</v>
       </c>
       <c r="G42">
-        <f>G19/$B42</f>
+        <f t="shared" si="10"/>
         <v>0.99913854798950352</v>
       </c>
       <c r="H42">
-        <f>H19/$B42</f>
+        <f t="shared" si="10"/>
         <v>2.2612949611683941</v>
       </c>
       <c r="I42">
-        <f>I19/$B42</f>
+        <f t="shared" si="10"/>
         <v>0.72056319081824682</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72056319081824682</v>
       </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>0.67705986428817555</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43:B50" si="11">B21</f>
+        <v>2.6436099999999998</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:I50" si="12">C21/$B43</f>
+        <v>1.1227525996648522</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="12"/>
+        <v>990.32762018603353</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="12"/>
+        <v>0.64203872734631817</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="12"/>
+        <v>1.1630270728284431</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="12"/>
+        <v>0.52592099439781215</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="12"/>
+        <v>781.14018330994372</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="12"/>
+        <v>440.00817064544322</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="B43">
-        <f>B21</f>
-        <v>2.6436099999999998</v>
-      </c>
-      <c r="C43">
-        <f>C21/$B43</f>
-        <v>1.1227525996648522</v>
-      </c>
-      <c r="D43">
-        <f>D21/$B43</f>
-        <v>990.32762018603353</v>
-      </c>
-      <c r="E43">
-        <f>E21/$B43</f>
-        <v>0.64203872734631817</v>
-      </c>
-      <c r="F43">
-        <f>F21/$B43</f>
-        <v>1.1630270728284431</v>
-      </c>
-      <c r="G43">
-        <f>G21/$B43</f>
         <v>0.52592099439781215</v>
       </c>
-      <c r="H43">
-        <f>H21/$B43</f>
-        <v>781.14018330994372</v>
-      </c>
-      <c r="I43">
-        <f>I21/$B43</f>
-        <v>440.00817064544322</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="1"/>
+      <c r="L43">
+        <f t="shared" si="6"/>
         <v>0.52592099439781215</v>
       </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="B44">
-        <f>B22</f>
+        <f t="shared" si="11"/>
         <v>1.10762</v>
       </c>
       <c r="C44">
-        <f>C22/$B44</f>
+        <f t="shared" si="12"/>
         <v>0.78653780177317123</v>
       </c>
       <c r="D44">
-        <f>D22/$B44</f>
+        <f t="shared" si="12"/>
         <v>5222.1068597533449</v>
       </c>
       <c r="E44">
-        <f>E22/$B44</f>
+        <f t="shared" si="12"/>
         <v>0.72997959589028727</v>
       </c>
       <c r="F44">
-        <f>F22/$B44</f>
+        <f t="shared" si="12"/>
         <v>1.1038081652552318</v>
       </c>
       <c r="G44">
-        <f>G22/$B44</f>
+        <f t="shared" si="12"/>
         <v>0.78630848124808139</v>
       </c>
       <c r="H44">
-        <f>H22/$B44</f>
+        <f t="shared" si="12"/>
         <v>1.3202993806540149</v>
       </c>
       <c r="I44">
-        <f>I22/$B44</f>
+        <f t="shared" si="12"/>
         <v>0.81414203427168164</v>
       </c>
       <c r="J44">
         <f>MIN(G44:I44)</f>
         <v>0.78630848124808139</v>
       </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>0.72997959589028727</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="11"/>
+        <v>7.0354400000000004</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="12"/>
+        <v>0.45332345951354852</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="12"/>
+        <v>112.92612828764085</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="12"/>
+        <v>0.3986260987230365</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="12"/>
+        <v>1.0305481959905847</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="12"/>
+        <v>0.43836917094026812</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="12"/>
+        <v>223.38617058776705</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="12"/>
+        <v>71.125473317944568</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="2"/>
+        <v>0.43836917094026812</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="6"/>
+        <v>0.3986260987230365</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="11"/>
+        <v>1.6732</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="12"/>
+        <v>0.66207267511355483</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="12"/>
+        <v>473.00083672005735</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="12"/>
+        <v>0.60539086779823092</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="12"/>
+        <v>0.91297513746115222</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="12"/>
+        <v>0.62360148218981593</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="12"/>
+        <v>0.76868276356681808</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="12"/>
+        <v>0.6220953860865408</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>0.6220953860865408</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="6"/>
+        <v>0.60539086779823092</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="11"/>
+        <v>33.856299999999997</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="12"/>
+        <v>1.0203270883114812</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="12"/>
+        <v>4.5349314603190551</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="12"/>
+        <v>0.66878837911998668</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="12"/>
+        <v>1.1956179499827211</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="12"/>
+        <v>0.9556448873621749</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="12"/>
+        <v>0.91237081429453315</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="12"/>
+        <v>0.67917049411778607</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>0.67917049411778607</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="6"/>
+        <v>0.66878837911998668</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="11"/>
+        <v>7.9376499999999997</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="12"/>
+        <v>0.89768508311653961</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="12"/>
+        <v>11.365996233142052</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="12"/>
+        <v>0.49476860279805734</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="12"/>
+        <v>1.0389548543964524</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="12"/>
+        <v>0.79712383388030461</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="12"/>
+        <v>0.86411847335168468</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="12"/>
+        <v>0.50579327634753357</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>0.50579327634753357</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="6"/>
+        <v>0.49476860279805734</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="11"/>
+        <v>1.46692</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="12"/>
+        <v>0.7070937747116407</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="12"/>
+        <v>164.74790717966897</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="12"/>
+        <v>0.60787977531153714</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="12"/>
+        <v>0.95003135821994389</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="12"/>
+        <v>0.59870408747579962</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="12"/>
+        <v>0.92709895563493572</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="12"/>
+        <v>0.61485493414773817</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>0.59870408747579962</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="6"/>
+        <v>0.59870408747579962</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="11"/>
+        <v>10.1663</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="12"/>
+        <v>0.26105761191387228</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="12"/>
+        <v>0.87934548459124762</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="12"/>
+        <v>0.33517110453163884</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="12"/>
+        <v>0.91901281685568992</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="12"/>
+        <v>0.70207745197367777</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="12"/>
+        <v>4.9787631685077169</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="12"/>
+        <v>67.275016476004055</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>0.70207745197367777</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="6"/>
+        <v>0.26105761191387228</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>15</v>
       </c>
-      <c r="B45">
-        <f>B23</f>
-        <v>7.0354400000000004</v>
-      </c>
-      <c r="C45">
-        <f>C23/$B45</f>
-        <v>0.45332345951354852</v>
-      </c>
-      <c r="D45">
-        <f>D23/$B45</f>
-        <v>112.92612828764085</v>
-      </c>
-      <c r="E45">
-        <f>E23/$B45</f>
-        <v>0.3986260987230365</v>
-      </c>
-      <c r="F45">
-        <f>F23/$B45</f>
-        <v>1.0305481959905847</v>
-      </c>
-      <c r="G45">
-        <f>G23/$B45</f>
-        <v>0.43836917094026812</v>
-      </c>
-      <c r="H45">
-        <f>H23/$B45</f>
-        <v>223.38617058776705</v>
-      </c>
-      <c r="I45">
-        <f>I23/$B45</f>
-        <v>71.125473317944568</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="1"/>
-        <v>0.43836917094026812</v>
-      </c>
+      <c r="B51">
+        <f>AVERAGE(B31:B50)</f>
+        <v>8.393461949999999</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:J51" si="13">AVERAGE(C31:C50)</f>
+        <v>0.66604467623809638</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="13"/>
+        <v>391.31007556011195</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="13"/>
+        <v>0.57793425048934832</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="13"/>
+        <v>1.0265412990580025</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="13"/>
+        <v>0.69861054100837083</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="13"/>
+        <v>51.245589465792627</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="13"/>
+        <v>29.447685191045753</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="13"/>
+        <v>0.58341905726162235</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="2">
+        <f>AVERAGE(M31:M50)*100</f>
+        <v>10</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" ref="N51:R51" si="14">AVERAGE(N31:N50)*100</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="R51" s="2">
+        <f>SUM(M51:Q51)</f>
+        <v>95</v>
+      </c>
+      <c r="S51" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="2"/>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>16</v>
       </c>
-      <c r="B46">
-        <f>B24</f>
-        <v>1.6732</v>
-      </c>
-      <c r="C46">
-        <f>C24/$B46</f>
-        <v>0.66207267511355483</v>
-      </c>
-      <c r="D46">
-        <f>D24/$B46</f>
-        <v>473.00083672005735</v>
-      </c>
-      <c r="E46">
-        <f>E24/$B46</f>
-        <v>0.60539086779823092</v>
-      </c>
-      <c r="F46">
-        <f>F24/$B46</f>
-        <v>0.91297513746115222</v>
-      </c>
-      <c r="G46">
-        <f>G24/$B46</f>
-        <v>0.62360148218981593</v>
-      </c>
-      <c r="H46">
-        <f>H24/$B46</f>
-        <v>0.76868276356681808</v>
-      </c>
-      <c r="I46">
-        <f>I24/$B46</f>
-        <v>0.6220953860865408</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="1"/>
-        <v>0.6220953860865408</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B47">
-        <f>B25</f>
-        <v>33.856299999999997</v>
-      </c>
-      <c r="C47">
-        <f>C25/$B47</f>
-        <v>1.0203270883114812</v>
-      </c>
-      <c r="D47">
-        <f>D25/$B47</f>
-        <v>4.5349314603190551</v>
-      </c>
-      <c r="E47">
-        <f>E25/$B47</f>
-        <v>0.66878837911998668</v>
-      </c>
-      <c r="F47">
-        <f>F25/$B47</f>
-        <v>1.1956179499827211</v>
-      </c>
-      <c r="G47">
-        <f>G25/$B47</f>
-        <v>0.9556448873621749</v>
-      </c>
-      <c r="H47">
-        <f>H25/$B47</f>
-        <v>0.91237081429453315</v>
-      </c>
-      <c r="I47">
-        <f>I25/$B47</f>
-        <v>0.67917049411778607</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="1"/>
-        <v>0.67917049411778607</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="B48">
-        <f>B26</f>
-        <v>7.9376499999999997</v>
-      </c>
-      <c r="C48">
-        <f>C26/$B48</f>
-        <v>0.89768508311653961</v>
-      </c>
-      <c r="D48">
-        <f>D26/$B48</f>
-        <v>11.365996233142052</v>
-      </c>
-      <c r="E48">
-        <f>E26/$B48</f>
-        <v>0.49476860279805734</v>
-      </c>
-      <c r="F48">
-        <f>F26/$B48</f>
-        <v>1.0389548543964524</v>
-      </c>
-      <c r="G48">
-        <f>G26/$B48</f>
-        <v>0.79712383388030461</v>
-      </c>
-      <c r="H48">
-        <f>H26/$B48</f>
-        <v>0.86411847335168468</v>
-      </c>
-      <c r="I48">
-        <f>I26/$B48</f>
-        <v>0.50579327634753357</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="1"/>
-        <v>0.50579327634753357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="B49">
-        <f>B27</f>
-        <v>1.46692</v>
-      </c>
-      <c r="C49">
-        <f>C27/$B49</f>
-        <v>0.7070937747116407</v>
-      </c>
-      <c r="D49">
-        <f>D27/$B49</f>
-        <v>164.74790717966897</v>
-      </c>
-      <c r="E49">
-        <f>E27/$B49</f>
-        <v>0.60787977531153714</v>
-      </c>
-      <c r="F49">
-        <f>F27/$B49</f>
-        <v>0.95003135821994389</v>
-      </c>
-      <c r="G49">
-        <f>G27/$B49</f>
-        <v>0.59870408747579962</v>
-      </c>
-      <c r="H49">
-        <f>H27/$B49</f>
-        <v>0.92709895563493572</v>
-      </c>
-      <c r="I49">
-        <f>I27/$B49</f>
-        <v>0.61485493414773817</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="1"/>
-        <v>0.59870408747579962</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="B50">
-        <f>B28</f>
-        <v>10.1663</v>
-      </c>
-      <c r="C50">
-        <f>C28/$B50</f>
-        <v>0.26105761191387228</v>
-      </c>
-      <c r="D50">
-        <f>D28/$B50</f>
-        <v>0.87934548459124762</v>
-      </c>
-      <c r="E50">
-        <f>E28/$B50</f>
-        <v>0.33517110453163884</v>
-      </c>
-      <c r="F50">
-        <f>F28/$B50</f>
-        <v>0.91901281685568992</v>
-      </c>
-      <c r="G50">
-        <f>G28/$B50</f>
-        <v>0.70207745197367777</v>
-      </c>
-      <c r="H50">
-        <f>H28/$B50</f>
-        <v>4.9787631685077169</v>
-      </c>
-      <c r="I50">
-        <f>I28/$B50</f>
-        <v>67.275016476004055</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="1"/>
-        <v>0.70207745197367777</v>
+      <c r="B52">
+        <f>ROUND(B51*1000,2)</f>
+        <v>8393.4599999999991</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:J52" si="15">ROUND(C51*1000,2)</f>
+        <v>666.04</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="15"/>
+        <v>391310.08000000002</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="15"/>
+        <v>577.92999999999995</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="15"/>
+        <v>1026.54</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="15"/>
+        <v>698.61</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="15"/>
+        <v>51245.59</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="15"/>
+        <v>29447.69</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="15"/>
+        <v>583.41999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/results/Office.Texture.blindSpotRotation.xlsx
+++ b/results/Office.Texture.blindSpotRotation.xlsx
@@ -128,8 +128,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,11 +607,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="202167536"/>
-        <c:axId val="202161656"/>
+        <c:axId val="199296240"/>
+        <c:axId val="199294672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202167536"/>
+        <c:axId val="199296240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,7 +633,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -649,7 +648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202161656"/>
+        <c:crossAx val="199294672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -657,7 +656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202161656"/>
+        <c:axId val="199294672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -686,7 +685,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -703,14 +701,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202167536"/>
+        <c:crossAx val="199296240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1604,11 +1601,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="202160872"/>
-        <c:axId val="202164008"/>
+        <c:axId val="199292320"/>
+        <c:axId val="199295064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202160872"/>
+        <c:axId val="199292320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,7 +1614,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202164008"/>
+        <c:crossAx val="199295064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1625,7 +1622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202164008"/>
+        <c:axId val="199295064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1638,14 +1635,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202160872"/>
+        <c:crossAx val="199292320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2115,11 +2111,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="202166752"/>
-        <c:axId val="202168320"/>
+        <c:axId val="199295848"/>
+        <c:axId val="199288792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202166752"/>
+        <c:axId val="199295848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2157,7 +2153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202168320"/>
+        <c:crossAx val="199288792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2165,7 +2161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202168320"/>
+        <c:axId val="199288792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2211,7 +2207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202166752"/>
+        <c:crossAx val="199295848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2648,7 +2644,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,10 +2653,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3552,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="3"/>
+        <f>IF($L31=J31,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -3618,13 +3614,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Q32:Q50" si="8">IF($L32=J32,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ref="A33:A50" si="8">A32+1</f>
+        <f t="shared" ref="A33:A50" si="9">A32+1</f>
         <v>3</v>
       </c>
       <c r="B33">
@@ -3684,13 +3680,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="B34">
@@ -3750,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B35">
@@ -3816,13 +3812,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="B36">
@@ -3882,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="B37">
@@ -3948,13 +3944,13 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="B38">
@@ -3962,31 +3958,31 @@
         <v>1.44723</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:I40" si="9">C14/$B38</f>
+        <f t="shared" ref="C38:I40" si="10">C14/$B38</f>
         <v>1.1606309985282228</v>
       </c>
       <c r="D38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.1355416899870785</v>
       </c>
       <c r="E38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.93754966384057814</v>
       </c>
       <c r="F38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.93938765780145517</v>
       </c>
       <c r="G38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.1381743053972069</v>
       </c>
       <c r="H38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4642178506526262</v>
       </c>
       <c r="I38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.93989897942966905</v>
       </c>
       <c r="J38">
@@ -4014,13 +4010,13 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B39">
@@ -4028,31 +4024,31 @@
         <v>7.1884899999999998</v>
       </c>
       <c r="C39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.23763683332660965</v>
       </c>
       <c r="D39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.94435270828783235</v>
       </c>
       <c r="E39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.20096710157487874</v>
       </c>
       <c r="F39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0042748894413152</v>
       </c>
       <c r="G39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.22316786974733221</v>
       </c>
       <c r="H39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2013496575775997</v>
       </c>
       <c r="I39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.24897301102178623</v>
       </c>
       <c r="J39">
@@ -4080,13 +4076,13 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="B40">
@@ -4094,31 +4090,31 @@
         <v>9.9110099999999992</v>
       </c>
       <c r="C40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.71160356008116232</v>
       </c>
       <c r="D40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1461596749473566</v>
       </c>
       <c r="E40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.64174387877723871</v>
       </c>
       <c r="F40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.039480335505665</v>
       </c>
       <c r="G40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.82798019576208692</v>
       </c>
       <c r="H40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.77861186700447282</v>
       </c>
       <c r="I40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.68213834916925731</v>
       </c>
       <c r="J40">
@@ -4146,13 +4142,13 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="B41">
@@ -4160,31 +4156,31 @@
         <v>66.415300000000002</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:I42" si="10">C18/$B41</f>
+        <f t="shared" ref="C41:I42" si="11">C18/$B41</f>
         <v>3.686424664196352E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0455422169289306</v>
       </c>
       <c r="E41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.4466531055344175</v>
       </c>
       <c r="F41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0333567717077241</v>
       </c>
       <c r="G41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.5098117451852204E-2</v>
       </c>
       <c r="H41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.1954052755916181E-2</v>
       </c>
       <c r="I41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12788107559553294</v>
       </c>
       <c r="J41">
@@ -4212,13 +4208,13 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="B42">
@@ -4226,31 +4222,31 @@
         <v>6.0363199999999999</v>
       </c>
       <c r="C42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.72394438995944543</v>
       </c>
       <c r="D42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>407.59104885095553</v>
       </c>
       <c r="E42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.67705986428817555</v>
       </c>
       <c r="F42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2896996845760331</v>
       </c>
       <c r="G42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.99913854798950352</v>
       </c>
       <c r="H42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2612949611683941</v>
       </c>
       <c r="I42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.72056319081824682</v>
       </c>
       <c r="J42">
@@ -4278,45 +4274,45 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43:B50" si="11">B21</f>
+        <f t="shared" ref="B43:B50" si="12">B21</f>
         <v>2.6436099999999998</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:I50" si="12">C21/$B43</f>
+        <f t="shared" ref="C43:I50" si="13">C21/$B43</f>
         <v>1.1227525996648522</v>
       </c>
       <c r="D43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>990.32762018603353</v>
       </c>
       <c r="E43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.64203872734631817</v>
       </c>
       <c r="F43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1630270728284431</v>
       </c>
       <c r="G43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.52592099439781215</v>
       </c>
       <c r="H43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>781.14018330994372</v>
       </c>
       <c r="I43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>440.00817064544322</v>
       </c>
       <c r="J43">
@@ -4344,45 +4340,45 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="B44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.10762</v>
       </c>
       <c r="C44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.78653780177317123</v>
       </c>
       <c r="D44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5222.1068597533449</v>
       </c>
       <c r="E44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.72997959589028727</v>
       </c>
       <c r="F44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1038081652552318</v>
       </c>
       <c r="G44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.78630848124808139</v>
       </c>
       <c r="H44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3202993806540149</v>
       </c>
       <c r="I44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.81414203427168164</v>
       </c>
       <c r="J44">
@@ -4410,45 +4406,45 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0354400000000004</v>
       </c>
       <c r="C45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.45332345951354852</v>
       </c>
       <c r="D45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>112.92612828764085</v>
       </c>
       <c r="E45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.3986260987230365</v>
       </c>
       <c r="F45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0305481959905847</v>
       </c>
       <c r="G45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.43836917094026812</v>
       </c>
       <c r="H45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>223.38617058776705</v>
       </c>
       <c r="I45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>71.125473317944568</v>
       </c>
       <c r="J45">
@@ -4476,45 +4472,45 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="B46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6732</v>
       </c>
       <c r="C46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.66207267511355483</v>
       </c>
       <c r="D46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>473.00083672005735</v>
       </c>
       <c r="E46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.60539086779823092</v>
       </c>
       <c r="F46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.91297513746115222</v>
       </c>
       <c r="G46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.62360148218981593</v>
       </c>
       <c r="H46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.76868276356681808</v>
       </c>
       <c r="I46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.6220953860865408</v>
       </c>
       <c r="J46">
@@ -4542,45 +4538,45 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="B47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33.856299999999997</v>
       </c>
       <c r="C47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0203270883114812</v>
       </c>
       <c r="D47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.5349314603190551</v>
       </c>
       <c r="E47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.66878837911998668</v>
       </c>
       <c r="F47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1956179499827211</v>
       </c>
       <c r="G47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.9556448873621749</v>
       </c>
       <c r="H47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.91237081429453315</v>
       </c>
       <c r="I47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.67917049411778607</v>
       </c>
       <c r="J47">
@@ -4608,45 +4604,45 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="B48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.9376499999999997</v>
       </c>
       <c r="C48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.89768508311653961</v>
       </c>
       <c r="D48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.365996233142052</v>
       </c>
       <c r="E48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.49476860279805734</v>
       </c>
       <c r="F48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0389548543964524</v>
       </c>
       <c r="G48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.79712383388030461</v>
       </c>
       <c r="H48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.86411847335168468</v>
       </c>
       <c r="I48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.50579327634753357</v>
       </c>
       <c r="J48">
@@ -4674,45 +4670,45 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="B49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.46692</v>
       </c>
       <c r="C49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.7070937747116407</v>
       </c>
       <c r="D49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>164.74790717966897</v>
       </c>
       <c r="E49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.60787977531153714</v>
       </c>
       <c r="F49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.95003135821994389</v>
       </c>
       <c r="G49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.59870408747579962</v>
       </c>
       <c r="H49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.92709895563493572</v>
       </c>
       <c r="I49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.61485493414773817</v>
       </c>
       <c r="J49">
@@ -4740,45 +4736,45 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="B50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10.1663</v>
       </c>
       <c r="C50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.26105761191387228</v>
       </c>
       <c r="D50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.87934548459124762</v>
       </c>
       <c r="E50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.33517110453163884</v>
       </c>
       <c r="F50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.91901281685568992</v>
       </c>
       <c r="G50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.70207745197367777</v>
       </c>
       <c r="H50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.9787631685077169</v>
       </c>
       <c r="I50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>67.275016476004055</v>
       </c>
       <c r="J50">
@@ -4806,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4819,65 +4815,65 @@
         <v>8.393461949999999</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:J51" si="13">AVERAGE(C31:C50)</f>
+        <f t="shared" ref="C51:J51" si="14">AVERAGE(C31:C50)</f>
         <v>0.66604467623809638</v>
       </c>
       <c r="D51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>391.31007556011195</v>
       </c>
       <c r="E51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.57793425048934832</v>
       </c>
       <c r="F51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0265412990580025</v>
       </c>
       <c r="G51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.69861054100837083</v>
       </c>
       <c r="H51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>51.245589465792627</v>
       </c>
       <c r="I51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29.447685191045753</v>
       </c>
       <c r="J51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.58341905726162235</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="1">
         <f>AVERAGE(M31:M50)*100</f>
         <v>10</v>
       </c>
-      <c r="N51" s="2">
-        <f t="shared" ref="N51:R51" si="14">AVERAGE(N31:N50)*100</f>
-        <v>0</v>
-      </c>
-      <c r="O51" s="2">
-        <f t="shared" si="14"/>
+      <c r="N51" s="1">
+        <f t="shared" ref="N51:Q51" si="15">AVERAGE(N31:N50)*100</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
-      <c r="P51" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="2">
-        <f t="shared" si="14"/>
-        <v>25</v>
-      </c>
-      <c r="R51" s="2">
+      <c r="P51" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="R51" s="1">
         <f>SUM(M51:Q51)</f>
-        <v>95</v>
-      </c>
-      <c r="S51" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="S51" s="1"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -4888,35 +4884,35 @@
         <v>8393.4599999999991</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:J52" si="15">ROUND(C51*1000,2)</f>
+        <f t="shared" ref="C52:J52" si="16">ROUND(C51*1000,2)</f>
         <v>666.04</v>
       </c>
       <c r="D52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>391310.08000000002</v>
       </c>
       <c r="E52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>577.92999999999995</v>
       </c>
       <c r="F52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1026.54</v>
       </c>
       <c r="G52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>698.61</v>
       </c>
       <c r="H52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>51245.59</v>
       </c>
       <c r="I52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29447.69</v>
       </c>
       <c r="J52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>583.41999999999996</v>
       </c>
     </row>
